--- a/Documents/Tesztsablonexcel.xlsx
+++ b/Documents/Tesztsablonexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxBab\Documents\GitHub\Unideb_2019_1_1_Csigabiga_nagyProjekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C500A7-91E2-454A-93B9-5BAF5072D6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB8C8F-2C0B-43CC-A988-32252FEA3E82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Főoldal" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>Típus</t>
   </si>
@@ -318,9 +316,6 @@
 2. Majd kattints a kosár gombra</t>
   </si>
   <si>
-    <t xml:space="preserve">Miután bekelentkeztünk megjelenik a felhasználónevünk a bejelentkezés gomb alatt </t>
-  </si>
-  <si>
     <t>1. Kattints az értékelem gombra</t>
   </si>
   <si>
@@ -334,6 +329,51 @@
   </si>
   <si>
     <t>A szoftver átnavigál minket a vásárlás oldalra, ahol megtekinthető a kiválaszott termék</t>
+  </si>
+  <si>
+    <t>Már be vagy jelentkezve és a kosárban van termék</t>
+  </si>
+  <si>
+    <t>1.Kattinst a tovább a vásárláshoz gombra                                                   2. Nézd át a hozzá tartozó oldalt</t>
+  </si>
+  <si>
+    <t>A kosár véglegesítése</t>
+  </si>
+  <si>
+    <t>A kosár véglegesítése a képernyőtervnek megfelelően néz ki</t>
+  </si>
+  <si>
+    <t>A kosár véglegesítése                    -                               gombok</t>
+  </si>
+  <si>
+    <t>A kosárban van termék</t>
+  </si>
+  <si>
+    <t>1.Kattints az eltávolítás gombra</t>
+  </si>
+  <si>
+    <t>A kosárbol a termék el lesz távolítva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miután bejelentkeztünk megjelenik a felhasználónevünk a bejelentkezés gomb alatt </t>
+  </si>
+  <si>
+    <t>Miután eltávolítunk minden terméket a kosárból,feldob egy üzenetet és visszavisz a főoldalra</t>
+  </si>
+  <si>
+    <t>1.Kattints a Vissza gombra</t>
+  </si>
+  <si>
+    <t>A főoldalra visz vissza</t>
+  </si>
+  <si>
+    <t>A kosárban megmarad a termék, ha visszamegyunk a főoldalra</t>
+  </si>
+  <si>
+    <t>1.Kattinst a Vásárlás gombra</t>
+  </si>
+  <si>
+    <t>A személyes információk bekéréséhez visz tovább</t>
   </si>
 </sst>
 </file>
@@ -383,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,24 +775,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4821E-3688-4458-8E04-12AC1DCB5B13}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -786,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -800,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -814,7 +857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -826,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -838,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -850,7 +893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -862,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -874,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -886,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -898,7 +941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -910,7 +953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
@@ -922,7 +965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -934,7 +977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -946,7 +989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -958,7 +1001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -970,7 +1013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
@@ -982,7 +1025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -996,7 +1039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -1008,7 +1051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>49</v>
@@ -1020,7 +1063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
@@ -1032,7 +1075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
@@ -1046,7 +1089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -1058,7 +1101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
@@ -1070,7 +1113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
@@ -1082,7 +1125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -1094,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -1112,7 +1155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>5</v>
@@ -1127,7 +1170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -1136,39 +1179,128 @@
         <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>76</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B31" xr:uid="{E14713AE-BA5A-48DC-879A-70E9E95CA281}"/>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B33 B36:B1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pozitív">
       <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
     </cfRule>
@@ -1189,16 +1321,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1228,16 +1360,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1267,16 +1399,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>

--- a/Documents/Tesztsablonexcel.xlsx
+++ b/Documents/Tesztsablonexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxBab\Documents\GitHub\Unideb_2019_1_1_Csigabiga_nagyProjekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB8C8F-2C0B-43CC-A988-32252FEA3E82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDE97D-0405-4DB6-9023-2D2D94492C00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>Típus</t>
   </si>
@@ -374,6 +374,72 @@
   </si>
   <si>
     <t>A személyes információk bekéréséhez visz tovább</t>
+  </si>
+  <si>
+    <t>Személyes információk bekérése</t>
+  </si>
+  <si>
+    <t>1.Kattints a Vásárlás gombra                2.Nézd át a hozzá tartozó oldalt</t>
+  </si>
+  <si>
+    <t>A személyes információk bekéréséhe a képernyőtervnek megfelelő</t>
+  </si>
+  <si>
+    <t>Nem történik semmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Kattints a Kérem válasszon szállítási módszert!-re                        </t>
+  </si>
+  <si>
+    <t>Személyes információk bekérése                               -                                            az adatok beírása</t>
+  </si>
+  <si>
+    <t>Kötelező a kitöltése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Írd be a neved a Névhez                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Írd be a telefonszámod a Telefonszámhoz                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Írd be a szállítási címed a Szállítási címhez                                  </t>
+  </si>
+  <si>
+    <t>4.Írd be az email címed az E-mailhoz</t>
+  </si>
+  <si>
+    <t>2.Kattints a Kérem válasszon fizetési módszert!-re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egy legördülő lista jelenik meg, szállítási opciókat tartalmaz.             </t>
+  </si>
+  <si>
+    <t>Kötelező választani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egy legördülő lista jelenik meg, fizetési opciókat tartalmaz.             </t>
+  </si>
+  <si>
+    <t>Személyes információk bekérése   -                                  gombok</t>
+  </si>
+  <si>
+    <t>A személye információk legyenek kitöltve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kattints a Vissza a kosárhoz gombra </t>
+  </si>
+  <si>
+    <t>Visszavisz a kosár véglegesítésére</t>
+  </si>
+  <si>
+    <t>1.Kattints a Tovább a vásárlás véglegesítéséhez gombra</t>
+  </si>
+  <si>
+    <t>A vásárlás véglegesítése oldalra visz tovább</t>
+  </si>
+  <si>
+    <t>Ha nincs kitöltve minden adat, akkor hibaüzenetet dob -&gt;minden adatnak kitöltve kell lennie.             A bekért személyes adatokkal atmegy a Vásárlás véglegesítése oldalra</t>
   </si>
 </sst>
 </file>
@@ -423,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +507,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,14 +524,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -775,11 +844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4821E-3688-4458-8E04-12AC1DCB5B13}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +913,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -858,7 +927,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -870,7 +939,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -882,7 +951,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -894,7 +963,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -906,7 +975,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -918,7 +987,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -930,7 +999,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -942,7 +1011,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1023,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,7 +1035,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -978,7 +1047,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -990,7 +1059,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1071,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1083,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1095,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1040,7 +1109,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1121,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1064,7 +1133,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1076,7 +1145,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1090,7 +1159,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1171,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1114,7 +1183,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
@@ -1126,7 +1195,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1210,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1225,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1240,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1258,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1221,43 +1290,43 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1341,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
@@ -1286,26 +1355,194 @@
         <v>90</v>
       </c>
     </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B31" xr:uid="{E14713AE-BA5A-48DC-879A-70E9E95CA281}"/>
-  <mergeCells count="9">
+  <mergeCells count="16">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A39:A45"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="F33:F35"/>
     <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B33 B36:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pozitív">
+  <conditionalFormatting sqref="B1:B33 B36:B47 B49:B1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pozitív">
       <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Negatív">
-      <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Tesztsablonexcel.xlsx
+++ b/Documents/Tesztsablonexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxBab\Documents\GitHub\Unideb_2019_1_1_Csigabiga_nagyProjekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDE97D-0405-4DB6-9023-2D2D94492C00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C484E9E5-8645-416E-AC18-32E7F180CB16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>Típus</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Személyes információk bekérése   -                                  gombok</t>
   </si>
   <si>
-    <t>A személye információk legyenek kitöltve</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Kattints a Vissza a kosárhoz gombra </t>
   </si>
   <si>
@@ -439,7 +436,46 @@
     <t>A vásárlás véglegesítése oldalra visz tovább</t>
   </si>
   <si>
-    <t>Ha nincs kitöltve minden adat, akkor hibaüzenetet dob -&gt;minden adatnak kitöltve kell lennie.             A bekért személyes adatokkal atmegy a Vásárlás véglegesítése oldalra</t>
+    <t>A vásárlás véglegesítése</t>
+  </si>
+  <si>
+    <t>A személyes információk legyenek kitöltve</t>
+  </si>
+  <si>
+    <t>1.Kattints a Tovább a vásárlás véglegesítéséhez gombra                 2.Nézd át az oldalt</t>
+  </si>
+  <si>
+    <t>A vásárlás véglegesítése oldal a képernyőtervnek megfelelő</t>
+  </si>
+  <si>
+    <t>A vásárlás véglegesítése                    -                               gombok</t>
+  </si>
+  <si>
+    <t>A személyes információk bekérése oldalhoz visz vissza</t>
+  </si>
+  <si>
+    <t>Ha visszamegyünk az előző oldalra, akkor a személyes adatokat még meg lehet változtatni és utána azt fogja tárolni</t>
+  </si>
+  <si>
+    <t>1.Kattints a Fizetés gombra</t>
+  </si>
+  <si>
+    <t>Legyen a kosárban termék és legyenek kitöltve a személyes adatok</t>
+  </si>
+  <si>
+    <t>Megrendelte a terméket,eltárolja egy adatbázisban feljön egy popup, ahol megköszöni a vásárlást a "cég" és egy random generált csomagszámot is ad hozza</t>
+  </si>
+  <si>
+    <t>Ok- után visszavisz a főoldalra</t>
+  </si>
+  <si>
+    <t>A bekért személyes adatokkal atmegy a Vásárlás véglegesítése oldalra</t>
+  </si>
+  <si>
+    <t>Ha nincs kitöltve minden adat, akkor hibaüzenetet dob és nem enged át a másik oldalra.</t>
+  </si>
+  <si>
+    <t>Tartalmazza a kosárba betett terméket/termékeket és a megadott személyes információkat -&gt;ezeket egy adatbázisban tárolja</t>
   </si>
 </sst>
 </file>
@@ -489,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,11 +551,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -844,11 +906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4821E-3688-4458-8E04-12AC1DCB5B13}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +975,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -927,7 +989,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -939,7 +1001,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -951,7 +1013,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -963,7 +1025,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -975,7 +1037,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -987,7 +1049,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1061,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1073,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1085,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1097,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1109,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1121,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1133,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1145,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1157,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1109,7 +1171,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1183,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1133,7 +1195,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1145,7 +1207,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1159,7 +1221,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1233,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1183,7 +1245,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
@@ -1195,7 +1257,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1272,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1287,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1302,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1320,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1290,43 +1352,43 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1341,11 +1403,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1362,7 +1424,7 @@
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1373,12 +1435,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="4" t="s">
         <v>98</v>
       </c>
@@ -1389,10 +1452,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
-        <v>5</v>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>94</v>
@@ -1402,12 +1469,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>94</v>
@@ -1417,12 +1485,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>94</v>
@@ -1432,117 +1501,188 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6" t="s">
-        <v>5</v>
-      </c>
+    <row r="45" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B31" xr:uid="{E14713AE-BA5A-48DC-879A-70E9E95CA281}"/>
-  <mergeCells count="16">
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
+  <mergeCells count="17">
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="F33:F35"/>
     <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B33 B36:B47 B49:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Negatív">
+  <conditionalFormatting sqref="B1:B33 B48:B49 B36:B46 B51:B1048576">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Negatív">
       <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B47)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pozitív">
-      <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Tesztsablonexcel.xlsx
+++ b/Documents/Tesztsablonexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxBab\Documents\GitHub\Unideb_2019_1_1_Csigabiga_nagyProjekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C500A7-91E2-454A-93B9-5BAF5072D6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16C537-9ACA-41E0-BB1E-D35ADAE9CC87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Főoldal" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
   <si>
     <t>Típus</t>
   </si>
@@ -334,6 +332,88 @@
   </si>
   <si>
     <t>A szoftver átnavigál minket a vásárlás oldalra, ahol megtekinthető a kiválaszott termék</t>
+  </si>
+  <si>
+    <t>Bejelentkezés</t>
+  </si>
+  <si>
+    <t>1. Kattintsunk a Bejelentkezése gombra
+2.Írjunk be egy felhasználónevet és jelszót
+3. Kattintsunk a regisztráció gombra</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés
+Átjutunk a főképernyőre</t>
+  </si>
+  <si>
+    <t>Már meglévő felhasználónév esetén
+Pop up üzenetet kapunk erről</t>
+  </si>
+  <si>
+    <t>1. Kattintsunk a Bejelentkezése gombra
+2.Írjunk be egy felhasználónevet</t>
+  </si>
+  <si>
+    <t>Hiba üzenet:hiányzó jelszó</t>
+  </si>
+  <si>
+    <t>1. Kattintsunk a Bejelentkezése gombra
+2.Írjunk be egy jelszót</t>
+  </si>
+  <si>
+    <t>Hiba üzenet:hiányzó felhasználónév</t>
+  </si>
+  <si>
+    <t>1. Ne írjunk be semmit
+2. kattintsunk a bejelentkezés gombra</t>
+  </si>
+  <si>
+    <t>Hiba üzenet:hiányzó felhasználónév és jelszó</t>
+  </si>
+  <si>
+    <t>1. Kattintsunk a regisztráció gombra</t>
+  </si>
+  <si>
+    <t>Megjelenik a regisztrációs ablak</t>
+  </si>
+  <si>
+    <t>Regisztráció</t>
+  </si>
+  <si>
+    <t>1. Ne írjunk be semmit
+2. kattintsunk a regisztráció gombra</t>
+  </si>
+  <si>
+    <t>Hiba üzenet:hiányzó adatok</t>
+  </si>
+  <si>
+    <t>1.Irjunk be csak jelszót
+2.Kattintsunk a regisztráció gombra</t>
+  </si>
+  <si>
+    <t>1.Írjunk be csak jelszót és emailt
+Valamint 1 jelszót
+2.Kattintsunk a regisztráció gombra</t>
+  </si>
+  <si>
+    <t>1Írjunk be minden adatot
+2.Adjunk meg nem egyező jelszót</t>
+  </si>
+  <si>
+    <t>Hiba üzenet:Nem egyező jelszó</t>
+  </si>
+  <si>
+    <t>1Írjunk be minden adatot
+2.Adjunk meg egyező jelszót</t>
+  </si>
+  <si>
+    <t>Sikeres regisztráció</t>
+  </si>
+  <si>
+    <t>1. Nyomjuk meg a „Mégse”</t>
+  </si>
+  <si>
+    <t>Visszakerülünk a bejelentkezés oldalra</t>
   </si>
 </sst>
 </file>
@@ -383,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -412,14 +498,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -734,22 +820,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4821E-3688-4458-8E04-12AC1DCB5B13}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -786,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -800,7 +886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -814,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -826,7 +912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -838,7 +924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -850,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -862,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -874,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -886,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -898,7 +984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -910,7 +996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
@@ -922,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -934,7 +1020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -946,7 +1032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -958,7 +1044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -970,7 +1056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
@@ -982,7 +1068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -996,7 +1082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -1008,7 +1094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>49</v>
@@ -1020,7 +1106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
@@ -1032,7 +1118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
@@ -1046,7 +1132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -1058,7 +1144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
@@ -1070,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
@@ -1082,7 +1168,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -1097,7 +1183,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -1112,7 +1198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>5</v>
@@ -1127,7 +1213,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -1145,7 +1231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1169,11 +1255,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pozitív">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pozitív">
       <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Negatív">
-      <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,22 +1269,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DDAF7C-7DA6-45ED-B2D2-2457845E3962}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1214,6 +1300,151 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1228,16 +1459,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1267,16 +1498,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>

--- a/Documents/Tesztsablonexcel.xlsx
+++ b/Documents/Tesztsablonexcel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxBab\Documents\GitHub\Unideb_2019_1_1_Csigabiga_nagyProjekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16C537-9ACA-41E0-BB1E-D35ADAE9CC87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D3042-7CBF-44B1-9527-668E1FB66A28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Főoldal" sheetId="1" r:id="rId1"/>
     <sheet name="Bejelentkezés-Regisztráció" sheetId="2" r:id="rId2"/>
-    <sheet name="Kosár" sheetId="3" r:id="rId3"/>
-    <sheet name="Vásárlás" sheetId="4" r:id="rId4"/>
+    <sheet name="Kosár-Kosár véglegesítése" sheetId="3" r:id="rId3"/>
+    <sheet name="Személyes Információk" sheetId="5" r:id="rId4"/>
+    <sheet name="Vásárlás" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Főoldal!$B$1:$B$31</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
   <si>
     <t>Típus</t>
   </si>
@@ -414,6 +415,150 @@
   </si>
   <si>
     <t>Visszakerülünk a bejelentkezés oldalra</t>
+  </si>
+  <si>
+    <t>A kosár véglegesítése</t>
+  </si>
+  <si>
+    <t>Már be vagy jelentkezve és a kosárban van termék</t>
+  </si>
+  <si>
+    <t>1.Kattinst a tovább a vásárláshoz gombra                                                   2. Nézd át a hozzá tartozó oldalt</t>
+  </si>
+  <si>
+    <t>A kosár véglegesítése a képernyőtervnek megfelelően néz ki</t>
+  </si>
+  <si>
+    <t>A kosárban van termék</t>
+  </si>
+  <si>
+    <t>1.Kattints az eltávolítás gombra</t>
+  </si>
+  <si>
+    <t>A kosárbol a termék el lesz távolítva</t>
+  </si>
+  <si>
+    <t>Miután eltávolítunk minden terméket a kosárból,feldob egy üzenetet és visszavisz a főoldalra</t>
+  </si>
+  <si>
+    <t>1.Kattints a Vissza gombra</t>
+  </si>
+  <si>
+    <t>A főoldalra visz vissza</t>
+  </si>
+  <si>
+    <t>A kosárban megmarad a termék, ha visszamegyunk a főoldalra</t>
+  </si>
+  <si>
+    <t>1.Kattinst a Vásárlás gombra</t>
+  </si>
+  <si>
+    <t>A személyes információk bekéréséhez visz tovább</t>
+  </si>
+  <si>
+    <t>A kosár véglegesítése                                                   -                                        gombok</t>
+  </si>
+  <si>
+    <t>Személyes információk bekérése</t>
+  </si>
+  <si>
+    <t>1.Kattints a Vásárlás gombra                2.Nézd át a hozzá tartozó oldalt</t>
+  </si>
+  <si>
+    <t>A személyes információk bekéréséhe a képernyőtervnek megfelelő</t>
+  </si>
+  <si>
+    <t>Személyes információk bekérése                               -                                            az adatok beírása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Írd be a neved a Névhez                </t>
+  </si>
+  <si>
+    <t>Nem történik semmi</t>
+  </si>
+  <si>
+    <t>Kötelező a kitöltése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Írd be a telefonszámod a Telefonszámhoz                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Írd be a szállítási címed a Szállítási címhez                                  </t>
+  </si>
+  <si>
+    <t>4.Írd be az email címed az E-mailhoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Kattints a Kérem válasszon szállítási módszert!-re                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egy legördülő lista jelenik meg, szállítási opciókat tartalmaz.             </t>
+  </si>
+  <si>
+    <t>Kötelező választani</t>
+  </si>
+  <si>
+    <t>2.Kattints a Kérem válasszon fizetési módszert!-re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egy legördülő lista jelenik meg, fizetési opciókat tartalmaz.             </t>
+  </si>
+  <si>
+    <t>Személyes információk bekérése   -                                  gombok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kattints a Vissza a kosárhoz gombra </t>
+  </si>
+  <si>
+    <t>Visszavisz a kosár véglegesítésére</t>
+  </si>
+  <si>
+    <t>A személyes információk legyenek kitöltve</t>
+  </si>
+  <si>
+    <t>1.Kattints a Tovább a vásárlás véglegesítéséhez gombra</t>
+  </si>
+  <si>
+    <t>A vásárlás véglegesítése oldalra visz tovább</t>
+  </si>
+  <si>
+    <t>Ha nincs kitöltve minden adat, akkor hibaüzenetet dob és nem enged át a másik oldalra.</t>
+  </si>
+  <si>
+    <t>A bekért személyes adatokkal atmegy a Vásárlás véglegesítése oldalra</t>
+  </si>
+  <si>
+    <t>A vásárlás véglegesítése</t>
+  </si>
+  <si>
+    <t>1.Kattints a Tovább a vásárlás véglegesítéséhez gombra                 2.Nézd át az oldalt</t>
+  </si>
+  <si>
+    <t>A vásárlás véglegesítése oldal a képernyőtervnek megfelelő</t>
+  </si>
+  <si>
+    <t>Tartalmazza a kosárba betett terméket/termékeket és a megadott személyes információkat -&gt;ezeket egy adatbázisban tárolja</t>
+  </si>
+  <si>
+    <t>A vásárlás véglegesítése                    -                               gombok</t>
+  </si>
+  <si>
+    <t>A személyes információk bekérése oldalhoz visz vissza</t>
+  </si>
+  <si>
+    <t>Ha visszamegyünk az előző oldalra, akkor a személyes adatokat még meg lehet változtatni és utána azt fogja tárolni</t>
+  </si>
+  <si>
+    <t>Legyen a kosárban termék és legyenek kitöltve a személyes adatok</t>
+  </si>
+  <si>
+    <t>1.Kattints a Fizetés gombra</t>
+  </si>
+  <si>
+    <t>Megrendelte a terméket,eltárolja egy adatbázisban feljön egy popup, ahol megköszöni a vásárlást a "cég" és egy random generált csomagszámot is ad hozza</t>
+  </si>
+  <si>
+    <t>Ok- után visszavisz a főoldalra</t>
   </si>
 </sst>
 </file>
@@ -463,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,11 +634,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -822,7 +1098,7 @@
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +1163,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -901,7 +1177,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -913,7 +1189,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -925,7 +1201,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -937,7 +1213,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -949,7 +1225,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -961,7 +1237,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1249,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -985,7 +1261,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1273,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1285,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1297,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1033,7 +1309,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1321,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1333,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1345,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1083,7 +1359,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1371,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1107,7 +1383,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1119,7 +1395,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1133,7 +1409,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1421,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1157,7 +1433,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
@@ -1169,7 +1445,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1460,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1475,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1490,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1508,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1255,10 +1531,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Negatív">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Negatív">
       <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pozitív">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Pozitív">
       <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1271,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DDAF7C-7DA6-45ED-B2D2-2457845E3962}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1453,22 +1729,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF719EBB-E5FA-48D8-9D9C-956DE44F3DBB}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1476,38 +1753,391 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B3 B6:B7">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72AFA-38EC-4E4D-B0B7-B086159E7925}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D52979-D6CC-479E-87B4-B854199544C2}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72AFA-38EC-4E4D-B0B7-B086159E7925}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1515,16 +2145,107 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B3 B5">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Negatív">
+      <formula>NOT(ISERROR(SEARCH("Negatív",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pozitív">
+      <formula>NOT(ISERROR(SEARCH("Pozitív",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Tesztsablonexcel.xlsx
+++ b/Documents/Tesztsablonexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxBab\Documents\GitHub\Unideb_2019_1_1_Csigabiga_nagyProjekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D3042-7CBF-44B1-9527-668E1FB66A28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477FF5EF-2270-477A-965C-7030F9407F5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{92D63D87-38F3-43B9-B33A-AB46CC6E58F7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="157">
   <si>
     <t>Típus</t>
   </si>
@@ -531,9 +531,6 @@
     <t>A vásárlás véglegesítése</t>
   </si>
   <si>
-    <t>1.Kattints a Tovább a vásárlás véglegesítéséhez gombra                 2.Nézd át az oldalt</t>
-  </si>
-  <si>
     <t>A vásárlás véglegesítése oldal a képernyőtervnek megfelelő</t>
   </si>
   <si>
@@ -559,6 +556,36 @@
   </si>
   <si>
     <t>Ok- után visszavisz a főoldalra</t>
+  </si>
+  <si>
+    <t>Kosár</t>
+  </si>
+  <si>
+    <t>1.Kattints a Kosár gombra  2.Nézd át az oldalt</t>
+  </si>
+  <si>
+    <t>1.Kattints a Tovább a vásárlás véglegesítéséhez gombra                          2.Nézd át az oldalt</t>
+  </si>
+  <si>
+    <t>A kosár a képernyőtervnek megfelelően néz ki</t>
+  </si>
+  <si>
+    <t>Kosár                                   -                                   gomb</t>
+  </si>
+  <si>
+    <t>1.Kattints a Pénztárhoz gombra</t>
+  </si>
+  <si>
+    <t>A kosár ne legyen üres</t>
+  </si>
+  <si>
+    <t>Feldob egy popupot,mert a vasarlashoz előbb terméket kell rakni a kosárba</t>
+  </si>
+  <si>
+    <t>Tovább megy a személyes adatok bekérése oldalra</t>
+  </si>
+  <si>
+    <t>Visszamegy a főoldalra</t>
   </si>
 </sst>
 </file>
@@ -608,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,18 +662,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,16 +671,31 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,7 +1193,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1177,7 +1207,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1219,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1231,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1243,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1255,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1267,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1279,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1291,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1303,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1285,7 +1315,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1327,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1339,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1351,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1363,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1375,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1359,7 +1389,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1401,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1383,7 +1413,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1395,7 +1425,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1409,7 +1439,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1451,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1433,7 +1463,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
@@ -1445,7 +1475,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1490,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1505,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1520,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1538,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1769,96 +1799,96 @@
       <c r="A2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 B6:B7">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Negatív">
@@ -1898,7 +1928,7 @@
     <col min="6" max="6" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>114</v>
       </c>
@@ -1936,8 +1966,8 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1954,8 +1984,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1970,8 +2000,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1986,8 +2016,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2002,8 +2032,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2018,8 +2048,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2034,8 +2064,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2050,8 +2080,8 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -2068,8 +2098,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2121,19 +2151,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F72AFA-38EC-4E4D-B0B7-B086159E7925}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2157,7 +2187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>137</v>
       </c>
@@ -2168,67 +2198,126 @@
         <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>147</v>
+      <c r="E9" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 B5">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Negatív">
